--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/20/seed3/result_data_RandomForest.xlsx
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.8528</v>
+        <v>-12.20379999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.15470000000001</v>
+        <v>-13.2484</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6279</v>
+        <v>-10.73879999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.2314</v>
+        <v>-12.54769999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.5529</v>
+        <v>-13.3178</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.0137</v>
+        <v>-13.7472</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.40579999999999</v>
+        <v>-13.46669999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1590,7 +1590,7 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.44409999999999</v>
+        <v>-11.5134</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.65380000000001</v>
+        <v>-12.50300000000001</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.43020000000001</v>
+        <v>-12.68430000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.2617</v>
+        <v>-12.1874</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1794,7 +1794,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.24360000000001</v>
+        <v>-13.23480000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.0933</v>
+        <v>-12.8191</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.32009999999999</v>
+        <v>-12.258</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.49859999999999</v>
+        <v>-13.18079999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -2151,7 +2151,7 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.57460000000001</v>
+        <v>-12.53750000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.2609</v>
+        <v>-13.2619</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
